--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -586,7 +586,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -607,10 +610,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,13 +909,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -938,16 +938,16 @@
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -955,12 +955,12 @@
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -968,12 +968,12 @@
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -981,12 +981,12 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -994,12 +994,12 @@
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1085,12 +1085,12 @@
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1098,12 +1098,12 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1111,14 +1111,14 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1139,12 +1139,12 @@
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1152,12 +1152,12 @@
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1165,12 +1165,12 @@
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
       <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1206,14 +1206,14 @@
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1221,14 +1221,14 @@
       <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1249,14 +1249,14 @@
       <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1264,12 +1264,12 @@
       <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1290,987 +1290,996 @@
       <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>31</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>32</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>33</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>34</v>
-      </c>
-      <c r="B34" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>35</v>
-      </c>
-      <c r="B35" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>36</v>
-      </c>
-      <c r="B36" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="18"/>
       <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>37</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>38</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>39</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
-        <v>40</v>
-      </c>
-      <c r="B40" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="18"/>
       <c r="C40" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
-        <v>41</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
-        <v>42</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
-        <v>43</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
-        <v>44</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <v>45</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
-        <v>46</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
-        <v>47</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>48</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <v>49</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>50</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
-        <v>51</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
-        <v>52</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
-        <v>53</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>54</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
-        <v>55</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>56</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>57</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <v>58</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>59</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <v>60</v>
-      </c>
-      <c r="B60" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="18"/>
       <c r="C60" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>61</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
-        <v>62</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <v>63</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <v>64</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <v>65</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
-        <v>66</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <v>67</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <v>68</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <v>69</v>
-      </c>
-      <c r="B69" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <v>70</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <v>71</v>
-      </c>
-      <c r="B71" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
-        <v>72</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
-        <v>73</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
-        <v>74</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <v>75</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
-        <v>76</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
-        <v>77</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
-        <v>78</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <v>79</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <v>80</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <v>81</v>
-      </c>
-      <c r="B81" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <v>82</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <v>83</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <v>84</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <v>85</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="21"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="22"/>
       <c r="D85" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <v>86</v>
-      </c>
-      <c r="B86" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="19"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>87</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>88</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>89</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="18"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>90</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>91</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>92</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>93</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>94</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>95</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E95" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>96</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E96" s="22" t="s">
+      <c r="E96" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>97</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>98</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>99</v>
-      </c>
-      <c r="B99" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="19"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>100</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>101</v>
-      </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="21"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="15" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="B86:B98"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="C3:C15"/>
@@ -2286,15 +2295,6 @@
     <mergeCell ref="C81:C85"/>
     <mergeCell ref="C71:C80"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -349,9 +349,6 @@
     <t>Отображение соответствующих символов валюты</t>
   </si>
   <si>
-    <t>Тестирование удобства использования</t>
-  </si>
-  <si>
     <t>Отсутствие орфографических и грамматических ошибок, все страницы имеют корректные заголовки</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>Максимальное длина каждого поля</t>
+  </si>
+  <si>
+    <t>UI/UX тестирование</t>
   </si>
 </sst>
 </file>
@@ -592,6 +592,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,9 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,13 +909,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -938,275 +938,275 @@
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
@@ -1214,148 +1214,148 @@
         <v>14</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>29</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>32</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7" t="s">
         <v>38</v>
       </c>
@@ -1363,14 +1363,14 @@
         <v>9</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>33</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="7" t="s">
         <v>68</v>
       </c>
@@ -1378,14 +1378,14 @@
         <v>69</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>34</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
@@ -1393,55 +1393,55 @@
         <v>41</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>36</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>37</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="7" t="s">
         <v>88</v>
       </c>
@@ -1449,267 +1449,267 @@
         <v>89</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>39</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>40</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>41</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>42</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>44</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>45</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="21"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>46</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="21"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>47</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>48</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="21"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>49</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="21"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>50</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="21"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>51</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="21"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>52</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>53</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>54</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="22"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>55</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>56</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>57</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>58</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7" t="s">
         <v>71</v>
       </c>
@@ -1717,569 +1717,560 @@
         <v>73</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>59</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>60</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>61</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>62</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>63</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="21"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>64</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="22"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>65</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="20" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>66</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>67</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>68</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>69</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>70</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="21"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>71</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="21"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>72</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="21"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>73</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="21"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>74</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="21"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>75</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="21"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>76</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="21"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>77</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="21"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>78</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="22"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>79</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="20"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>80</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="21"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>81</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="21"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>82</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="21"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>83</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="22"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>84</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="E86" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>85</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="21"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="22"/>
       <c r="D87" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>86</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="21"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="22"/>
       <c r="D88" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>87</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="21"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>88</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="21"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="22"/>
       <c r="D90" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>89</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="21"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>90</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="21"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>91</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="21"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>92</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="21"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>93</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="21"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>94</v>
       </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="21"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>95</v>
       </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="21"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>96</v>
       </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="23"/>
       <c r="D98" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>97</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E99" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>98</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="21"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>99</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="22"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="23"/>
       <c r="D101" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C68"/>
     <mergeCell ref="B86:B98"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="C3:C15"/>
@@ -2295,6 +2286,15 @@
     <mergeCell ref="C81:C85"/>
     <mergeCell ref="C71:C80"/>
     <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2316,17 +2316,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
